--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB4D21-96FE-446B-9B10-A40981341EBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A023C5C2-26CD-471C-B6BF-D7E52AA234CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
+    <sheet name="Eating-time" sheetId="3" r:id="rId2"/>
+    <sheet name="Cleaning" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="34">
   <si>
     <t>Thursday</t>
   </si>
@@ -106,6 +108,33 @@
   </si>
   <si>
     <t>average observation of groups(non-peak)</t>
+  </si>
+  <si>
+    <t>Time-taken</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>average time taken eating</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>average timing to clean a plate in seconds</t>
+  </si>
+  <si>
+    <t>Min time</t>
+  </si>
+  <si>
+    <t>Max time</t>
   </si>
 </sst>
 </file>
@@ -201,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -233,6 +262,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ABFA-3741-43AD-9FEA-F32BEA9D2F22}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1267,4 +1306,2724 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
+  <dimension ref="A1:G120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(C2:C119)</f>
+        <v>13.649572649572649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <f>MIN(C2:C119)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <f>MAX(C2:C119)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="17">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="17">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="17">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="17">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="17">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="17">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="17">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="17">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="17">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="17">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="17">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="17">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="17">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="17">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="17">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="17">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="17">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="17">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="17">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="17">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="17">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="17">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="17">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="17">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="17">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="17">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="17">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="17">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="17">
+        <v>111</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="17">
+        <v>112</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="17">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="17">
+        <v>114</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="17">
+        <v>115</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="17">
+        <v>116</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="17">
+        <v>117</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="17">
+        <v>118</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="17">
+        <v>119</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCF71-2689-4FBB-8765-7213A580597D}">
+  <dimension ref="A1:F120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(C2:C120)</f>
+        <v>12.731092436974789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <f>MIN(C2:C120)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <f>MAX(C2:C120)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="16">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="16">
+        <v>77</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="16">
+        <v>79</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="16">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="16">
+        <v>81</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="16">
+        <v>82</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="16">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="16">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="16">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="16">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="16">
+        <v>87</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="16">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="16">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="16">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="16">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="16">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="16">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="16">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="16">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="16">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="16">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="16">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="16">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="16">
+        <v>100</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="16">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="16">
+        <v>102</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="16">
+        <v>103</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="16">
+        <v>104</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="16">
+        <v>105</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="16">
+        <v>106</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="16">
+        <v>107</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="16">
+        <v>108</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="16">
+        <v>109</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="16">
+        <v>110</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="16">
+        <v>111</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="16">
+        <v>112</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="16">
+        <v>113</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="16">
+        <v>114</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="16">
+        <v>115</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="16">
+        <v>116</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="16">
+        <v>117</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="16">
+        <v>118</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="16">
+        <v>119</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="16">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A023C5C2-26CD-471C-B6BF-D7E52AA234CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983AC85-6EC4-4D65-8F04-B5D8D4418F0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
     <sheet name="Eating-time" sheetId="3" r:id="rId2"/>
     <sheet name="Cleaning" sheetId="2" r:id="rId3"/>
+    <sheet name="Tray Return" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="42">
   <si>
     <t>Thursday</t>
   </si>
@@ -136,6 +137,30 @@
   <si>
     <t>Max time</t>
   </si>
+  <si>
+    <t>Trays returned</t>
+  </si>
+  <si>
+    <t>Trays unreturned</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Available tray return point nearby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg  </t>
+  </si>
+  <si>
+    <t>Difference in (trays returned-tray unreturned)/trays unreturned) in %</t>
+  </si>
+  <si>
+    <t>No available tray return point nearby</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -248,6 +273,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,16 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +621,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,24 +650,24 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3">
         <v>1</v>
       </c>
@@ -652,12 +683,12 @@
       <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -676,20 +707,20 @@
         <v>12</v>
       </c>
       <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
         <v>38</v>
       </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>42</v>
-      </c>
       <c r="I3">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J3" s="5">
         <f>SUMPRODUCT($F$2:$I$2,F3:I3)</f>
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="O3" s="7">
         <v>1</v>
@@ -745,19 +776,19 @@
       </c>
       <c r="O4">
         <f>SUM(F3:F10)/SUM(F3:I10)</f>
-        <v>0.16413214472994231</v>
+        <v>0.15380464112250405</v>
       </c>
       <c r="P4">
         <f>SUM(G3:G10)/SUM(F3:I10)</f>
-        <v>0.21919244887257472</v>
+        <v>0.2207231516459795</v>
       </c>
       <c r="Q4">
         <f>SUM(H3:H10)/SUM(F3:I10)</f>
-        <v>0.25904562139486104</v>
+        <v>0.26443604964921746</v>
       </c>
       <c r="R4">
         <f>SUM(I3:I10)/SUM(F3:I10)</f>
-        <v>0.35762978500262194</v>
+        <v>0.36103615758229896</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -810,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -823,7 +854,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>612</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -959,24 +990,24 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="5"/>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:18" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -995,20 +1026,20 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>20</v>
@@ -1064,19 +1095,19 @@
       </c>
       <c r="O13">
         <f>SUM(F12:F19)/SUM(F12:I19)</f>
-        <v>0.25683371298405466</v>
+        <v>0.2341095028319698</v>
       </c>
       <c r="P13">
         <f>SUM(G12:G19)/SUM(F12:I19)</f>
-        <v>0.22835990888382687</v>
+        <v>0.23285084959093769</v>
       </c>
       <c r="Q13">
         <f>SUM(H12:H19)/SUM(F12:I19)</f>
-        <v>0.23633257403189067</v>
+        <v>0.24795468848332283</v>
       </c>
       <c r="R13">
         <f>SUM(I12:I19)/SUM(F12:I19)</f>
-        <v>0.27847380410022782</v>
+        <v>0.28508495909376969</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -1129,20 +1160,20 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I15">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -1195,20 +1226,20 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G17">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I17">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="0"/>
-        <v>552</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -1310,11 +1341,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1325,21 +1354,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -1354,10 +1383,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="17">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3">
@@ -1372,10 +1401,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C4">
@@ -1390,10 +1419,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="17">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1401,10 +1430,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="17">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -1412,10 +1441,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -1423,10 +1452,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -1434,10 +1463,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1445,10 +1474,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C10">
@@ -1456,10 +1485,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -1467,10 +1496,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1478,10 +1507,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13">
@@ -1489,10 +1518,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -1500,10 +1529,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C15">
@@ -1511,21 +1540,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>10</v>
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C17">
@@ -1533,10 +1562,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C18">
@@ -1544,10 +1573,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="17">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C19">
@@ -1555,10 +1584,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C20">
@@ -1566,10 +1595,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="17">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C21">
@@ -1577,10 +1606,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C22">
@@ -1588,10 +1617,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C23">
@@ -1599,10 +1628,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C24">
@@ -1610,10 +1639,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C25">
@@ -1621,10 +1650,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C26">
@@ -1632,10 +1661,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C27">
@@ -1643,10 +1672,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C28">
@@ -1654,10 +1683,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C29">
@@ -1665,10 +1694,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C30">
@@ -1676,21 +1705,21 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>11</v>
+      <c r="B31" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C31">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="17">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C32">
@@ -1698,10 +1727,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="17">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C33">
@@ -1709,10 +1738,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="17">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C34">
@@ -1720,10 +1749,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="17">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C35">
@@ -1731,10 +1760,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C36">
@@ -1742,10 +1771,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="17">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C37">
@@ -1753,10 +1782,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="17">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C38">
@@ -1764,10 +1793,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="17">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C39">
@@ -1775,10 +1804,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="17">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C40">
@@ -1786,10 +1815,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="17">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C41">
@@ -1797,10 +1826,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C42">
@@ -1808,10 +1837,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="17">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C43">
@@ -1819,10 +1848,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="17">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C44">
@@ -1830,10 +1859,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="17">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C45">
@@ -1841,21 +1870,21 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="17">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>13</v>
+      <c r="B46" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="17">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C47">
@@ -1863,10 +1892,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="17">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C48">
@@ -1874,10 +1903,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="17">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C49">
@@ -1885,10 +1914,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="17">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C50">
@@ -1896,10 +1925,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="17">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C51">
@@ -1907,10 +1936,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="17">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C52">
@@ -1918,10 +1947,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="17">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C53">
@@ -1929,10 +1958,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="17">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C54">
@@ -1940,10 +1969,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C55">
@@ -1951,10 +1980,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="17">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C56">
@@ -1962,10 +1991,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="17">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C57">
@@ -1973,10 +2002,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="17">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C58">
@@ -1984,10 +2013,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="17">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C59">
@@ -1995,10 +2024,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="17">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C60">
@@ -2006,21 +2035,21 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="17">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>14</v>
+      <c r="B61" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C61">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="17">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C62">
@@ -2028,10 +2057,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="17">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C63">
@@ -2039,10 +2068,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="17">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C64">
@@ -2050,10 +2079,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="17">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C65">
@@ -2061,10 +2090,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="17">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C66">
@@ -2072,10 +2101,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="17">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C67">
@@ -2083,10 +2112,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="17">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C68">
@@ -2094,10 +2123,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="17">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C69">
@@ -2105,10 +2134,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="17">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C70">
@@ -2116,10 +2145,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="17">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C71">
@@ -2127,10 +2156,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="17">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C72">
@@ -2138,10 +2167,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="17">
+      <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C73">
@@ -2149,10 +2178,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="17">
+      <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C74">
@@ -2160,10 +2189,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="17">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C75">
@@ -2171,21 +2200,21 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="17">
+      <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>15</v>
+      <c r="B76" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C76">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="17">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C77">
@@ -2193,10 +2222,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="17">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C78">
@@ -2204,10 +2233,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="17">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C79">
@@ -2215,10 +2244,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="17">
+      <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C80">
@@ -2226,10 +2255,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="17">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C81">
@@ -2237,10 +2266,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="17">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C82">
@@ -2248,10 +2277,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="17">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C83">
@@ -2259,10 +2288,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="17">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C84">
@@ -2270,10 +2299,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="17">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C85">
@@ -2281,10 +2310,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="17">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C86">
@@ -2292,10 +2321,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="17">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C87">
@@ -2303,10 +2332,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="17">
+      <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C88">
@@ -2314,10 +2343,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="17">
+      <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C89">
@@ -2325,10 +2354,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="17">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C90">
@@ -2336,21 +2365,21 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="17">
+      <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>16</v>
+      <c r="B91" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C91">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="17">
+      <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C92">
@@ -2358,10 +2387,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="17">
+      <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C93">
@@ -2369,10 +2398,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="17">
+      <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C94">
@@ -2380,10 +2409,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="17">
+      <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C95">
@@ -2391,10 +2420,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="17">
+      <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C96">
@@ -2402,10 +2431,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="17">
+      <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C97">
@@ -2413,10 +2442,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="17">
+      <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C98">
@@ -2424,10 +2453,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="17">
+      <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C99">
@@ -2435,10 +2464,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="17">
+      <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C100">
@@ -2446,10 +2475,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="17">
+      <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C101">
@@ -2457,10 +2486,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="17">
+      <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C102">
@@ -2468,10 +2497,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="17">
+      <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C103">
@@ -2479,10 +2508,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="17">
+      <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C104">
@@ -2490,10 +2519,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="17">
+      <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C105">
@@ -2501,165 +2530,176 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="17">
+      <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="12">
+        <v>106</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C106">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="17">
-        <v>106</v>
-      </c>
-      <c r="B107" s="17" t="s">
+      <c r="C107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="12">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C107">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="17">
-        <v>107</v>
-      </c>
-      <c r="B108" s="17" t="s">
+      <c r="C108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="12">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="17">
-        <v>108</v>
-      </c>
-      <c r="B109" s="17" t="s">
+      <c r="C109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="12">
+        <v>109</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="17">
-        <v>109</v>
-      </c>
-      <c r="B110" s="17" t="s">
+      <c r="C110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="12">
+        <v>110</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C110">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="17">
-        <v>110</v>
-      </c>
-      <c r="B111" s="17" t="s">
+      <c r="C111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="12">
+        <v>111</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C111">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="17">
-        <v>111</v>
-      </c>
-      <c r="B112" s="17" t="s">
+      <c r="C112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="12">
+        <v>112</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C112">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="17">
-        <v>112</v>
-      </c>
-      <c r="B113" s="17" t="s">
+      <c r="C113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="12">
+        <v>113</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C113">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="17">
-        <v>113</v>
-      </c>
-      <c r="B114" s="17" t="s">
+      <c r="C114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="12">
+        <v>114</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C114">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="17">
-        <v>114</v>
-      </c>
-      <c r="B115" s="17" t="s">
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="12">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C115">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="17">
-        <v>115</v>
-      </c>
-      <c r="B116" s="17" t="s">
+      <c r="C116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="12">
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="17">
-        <v>116</v>
-      </c>
-      <c r="B117" s="17" t="s">
+      <c r="C117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="12">
+        <v>117</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C117">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="17">
-        <v>117</v>
-      </c>
-      <c r="B118" s="17" t="s">
+      <c r="C118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="12">
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C118">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="17">
-        <v>118</v>
-      </c>
-      <c r="B119" s="17" t="s">
+      <c r="C119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="12">
+        <v>119</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="17">
-        <v>119</v>
-      </c>
-      <c r="B120" s="17" t="s">
+      <c r="C120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2669,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCF71-2689-4FBB-8765-7213A580597D}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2683,35 +2723,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="16">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="16">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2719,17 +2759,17 @@
       </c>
       <c r="F3">
         <f>AVERAGE(C2:C120)</f>
-        <v>12.731092436974789</v>
+        <v>12.6890756302521</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="16">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2741,13 +2781,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
         <v>15</v>
       </c>
       <c r="E5" t="s">
@@ -2759,1268 +2799,1503 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="16">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="16">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="16">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="16">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="16">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="11">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D2C0E-0307-4C3C-BA05-35DAD021C447}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" customWidth="1"/>
+    <col min="5" max="5" width="18.86328125" customWidth="1"/>
+    <col min="6" max="7" width="26.796875" customWidth="1"/>
+    <col min="8" max="8" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11">
+        <f>SUM(B2:C2)</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="11">
+        <f>(B2-C2)/(C2)*100</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11">
+        <f>SUM(E2:E9)/8</f>
+        <v>73.01136363636364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D9" si="0">SUM(B3:C3)</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E9" si="1">(B3-C3)/(C3)*100</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="1"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="16">
+      <c r="C5" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
+        <v>-63.636363636363633</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="16">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="16">
-        <v>27</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="16">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="16">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="16">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="16">
-        <v>31</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="16">
-        <v>32</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="16">
-        <v>33</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="16">
-        <v>34</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="16">
-        <v>35</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="16">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="16">
-        <v>37</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="16">
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="16">
-        <v>39</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="16">
-        <v>40</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="16">
-        <v>41</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="16">
-        <v>42</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="16">
-        <v>43</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="16">
-        <v>44</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="16">
-        <v>45</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="16">
-        <v>46</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="16">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="16">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="16">
-        <v>49</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="16">
-        <v>50</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="16">
-        <v>51</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="16">
-        <v>52</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="16">
-        <v>53</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="16">
-        <v>54</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="16">
-        <v>55</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="16">
-        <v>56</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="16">
-        <v>57</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="16">
-        <v>58</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="16">
-        <v>59</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="16">
-        <v>60</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="16">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="16">
-        <v>62</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="16">
-        <v>63</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="16">
-        <v>64</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="16">
-        <v>65</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="16">
-        <v>66</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="16">
-        <v>67</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="16">
-        <v>68</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="16">
-        <v>69</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="16">
-        <v>70</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="16">
-        <v>71</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="16">
-        <v>72</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="16">
-        <v>73</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="16">
-        <v>74</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="16">
-        <v>75</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="16">
-        <v>76</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="16">
-        <v>77</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="16">
-        <v>78</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="16">
-        <v>79</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="16">
-        <v>80</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="16">
-        <v>81</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="16">
-        <v>82</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="16">
-        <v>83</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="16">
-        <v>84</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="16">
-        <v>85</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="16">
-        <v>86</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="16">
-        <v>87</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="16">
-        <v>88</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="16">
-        <v>89</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="16">
-        <v>90</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="16">
-        <v>91</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="16">
-        <v>92</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="16">
-        <v>93</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="16">
-        <v>94</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="16">
-        <v>95</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="16">
-        <v>96</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="16">
-        <v>97</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="16">
-        <v>98</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="16">
-        <v>99</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="16">
-        <v>100</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="16">
-        <v>101</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="16">
-        <v>102</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="16">
-        <v>103</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="16">
-        <v>104</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="16">
-        <v>105</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="16">
-        <v>106</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="16">
-        <v>107</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="16">
-        <v>108</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="16">
-        <v>109</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="16">
-        <v>110</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="16">
-        <v>111</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="16">
-        <v>112</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="16">
-        <v>113</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="16">
-        <v>114</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="16">
-        <v>115</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="16">
-        <v>116</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="16">
-        <v>117</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C118" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="16">
-        <v>118</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="16">
-        <v>119</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="16">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983AC85-6EC4-4D65-8F04-B5D8D4418F0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C2C87-1614-4CBE-BFBA-BA0E488483C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
@@ -66,28 +66,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>SMU Food Court</t>
-  </si>
-  <si>
-    <t>SMU Food Republic</t>
-  </si>
-  <si>
     <t>Sengkang Square, Kopitiam Square</t>
-  </si>
-  <si>
-    <t>Koufu @ Rivervale Plaza</t>
-  </si>
-  <si>
-    <t>Cookhouse by Koufu @ Marina Square</t>
-  </si>
-  <si>
-    <t>Cookhouse by Koufu @ Waterway Point</t>
-  </si>
-  <si>
-    <t>Koufu @ Cathay Cineleisure</t>
-  </si>
-  <si>
-    <t>Koufu @ Plaza Singapura</t>
   </si>
   <si>
     <t>Non-Peak Period</t>
@@ -160,6 +139,27 @@
   </si>
   <si>
     <t>No available tray return point nearby</t>
+  </si>
+  <si>
+    <t>CHINATOWN COMPLEX FOOD CENTRE</t>
+  </si>
+  <si>
+    <t>Chomp Chomp Food Centre</t>
+  </si>
+  <si>
+    <t>ABC BRICKWORKS FOOD CENTRE</t>
+  </si>
+  <si>
+    <t>Golden Mile Food Centre</t>
+  </si>
+  <si>
+    <t>Old Airport Road</t>
+  </si>
+  <si>
+    <t>Albert food centre</t>
+  </si>
+  <si>
+    <t>Netwon Food Centre</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -662,7 +662,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -681,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
@@ -704,7 +704,7 @@
         <v>632</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43535</v>
       </c>
@@ -749,7 +749,7 @@
         <v>545</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>41</v>
@@ -768,7 +768,7 @@
         <v>545</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M4" s="6">
         <f>AVERAGE(D3:D10)/60/60</f>
@@ -805,7 +805,7 @@
         <v>612</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>68</v>
@@ -838,7 +838,7 @@
         <v>612</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>45</v>
@@ -871,7 +871,7 @@
         <v>701</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -904,7 +904,7 @@
         <v>624</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -937,7 +937,7 @@
         <v>712</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>921</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>35</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1003,7 +1003,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="5"/>
       <c r="O11" s="15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -1023,7 +1023,7 @@
         <v>498</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>28</v>
@@ -1042,7 +1042,7 @@
         <v>416</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M12" s="6">
         <f>AVERAGE(D12:D19)/60/60</f>
@@ -1075,7 +1075,7 @@
         <v>428</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>48</v>
@@ -1124,7 +1124,7 @@
         <v>451</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>33</v>
@@ -1157,7 +1157,7 @@
         <v>601</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>32</v>
@@ -1190,7 +1190,7 @@
         <v>522</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1223,7 +1223,7 @@
         <v>552</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>42</v>
@@ -1256,7 +1256,7 @@
         <v>700</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>69</v>
@@ -1289,7 +1289,7 @@
         <v>722</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>70</v>
@@ -1335,6 +1335,10 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F11:I11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{89C55ED5-F032-4DAF-81ED-F2C6C84005AF}"/>
+    <hyperlink ref="E13" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{D379FEF4-9545-469B-A712-3F8D9E8D6B7B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1343,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1355,13 +1361,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1369,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <f>AVERAGE(C2:C119)</f>
@@ -1387,13 +1393,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <f>MIN(C2:C119)</f>
@@ -1405,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <f>MAX(C2:C119)</f>
@@ -1423,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1434,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -1445,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -1456,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1467,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -1478,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -1489,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -1500,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -1511,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1522,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1533,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1544,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1554,8 +1560,8 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1565,8 +1571,8 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1576,8 +1582,8 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1587,8 +1593,8 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1598,8 +1604,8 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1609,8 +1615,8 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1620,8 +1626,8 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1631,8 +1637,8 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1642,8 +1648,8 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1653,8 +1659,8 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>10</v>
+      <c r="B26" t="s">
+        <v>35</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1664,8 +1670,8 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>10</v>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1675,8 +1681,8 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>10</v>
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1686,8 +1692,8 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>10</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -1697,8 +1703,8 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>10</v>
+      <c r="B30" t="s">
+        <v>35</v>
       </c>
       <c r="C30">
         <v>13</v>
@@ -1708,8 +1714,8 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>10</v>
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -1719,8 +1725,8 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>11</v>
+      <c r="B32" t="s">
+        <v>36</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1730,8 +1736,8 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>11</v>
+      <c r="B33" t="s">
+        <v>36</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -1741,8 +1747,8 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>11</v>
+      <c r="B34" t="s">
+        <v>36</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -1752,8 +1758,8 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>11</v>
+      <c r="B35" t="s">
+        <v>36</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -1763,8 +1769,8 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>11</v>
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -1774,8 +1780,8 @@
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>11</v>
+      <c r="B37" t="s">
+        <v>36</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1785,8 +1791,8 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>11</v>
+      <c r="B38" t="s">
+        <v>36</v>
       </c>
       <c r="C38">
         <v>17</v>
@@ -1796,8 +1802,8 @@
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>11</v>
+      <c r="B39" t="s">
+        <v>36</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1807,8 +1813,8 @@
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>11</v>
+      <c r="B40" t="s">
+        <v>36</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1818,8 +1824,8 @@
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>11</v>
+      <c r="B41" t="s">
+        <v>36</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -1829,8 +1835,8 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>11</v>
+      <c r="B42" t="s">
+        <v>36</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -1840,8 +1846,8 @@
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>11</v>
+      <c r="B43" t="s">
+        <v>36</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -1851,8 +1857,8 @@
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>11</v>
+      <c r="B44" t="s">
+        <v>36</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -1862,8 +1868,8 @@
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>11</v>
+      <c r="B45" t="s">
+        <v>36</v>
       </c>
       <c r="C45">
         <v>17</v>
@@ -1873,19 +1879,19 @@
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>11</v>
+      <c r="B46" t="s">
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>13</v>
+      <c r="B47" t="s">
+        <v>37</v>
       </c>
       <c r="C47">
         <v>17</v>
@@ -1895,8 +1901,8 @@
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>13</v>
+      <c r="B48" t="s">
+        <v>37</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -1906,8 +1912,8 @@
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>13</v>
+      <c r="B49" t="s">
+        <v>37</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -1917,8 +1923,8 @@
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>13</v>
+      <c r="B50" t="s">
+        <v>37</v>
       </c>
       <c r="C50">
         <v>19</v>
@@ -1928,8 +1934,8 @@
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>13</v>
+      <c r="B51" t="s">
+        <v>37</v>
       </c>
       <c r="C51">
         <v>19</v>
@@ -1939,8 +1945,8 @@
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>13</v>
+      <c r="B52" t="s">
+        <v>37</v>
       </c>
       <c r="C52">
         <v>18</v>
@@ -1950,8 +1956,8 @@
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>13</v>
+      <c r="B53" t="s">
+        <v>37</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -1961,8 +1967,8 @@
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>13</v>
+      <c r="B54" t="s">
+        <v>37</v>
       </c>
       <c r="C54">
         <v>16</v>
@@ -1972,8 +1978,8 @@
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>13</v>
+      <c r="B55" t="s">
+        <v>37</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -1983,8 +1989,8 @@
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>13</v>
+      <c r="B56" t="s">
+        <v>37</v>
       </c>
       <c r="C56">
         <v>19</v>
@@ -1994,8 +2000,8 @@
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>13</v>
+      <c r="B57" t="s">
+        <v>37</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -2005,8 +2011,8 @@
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>13</v>
+      <c r="B58" t="s">
+        <v>37</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -2016,8 +2022,8 @@
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>13</v>
+      <c r="B59" t="s">
+        <v>37</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -2027,8 +2033,8 @@
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>13</v>
+      <c r="B60" t="s">
+        <v>37</v>
       </c>
       <c r="C60">
         <v>16</v>
@@ -2038,8 +2044,8 @@
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>13</v>
+      <c r="B61" t="s">
+        <v>37</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -2049,8 +2055,8 @@
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>14</v>
+      <c r="B62" t="s">
+        <v>38</v>
       </c>
       <c r="C62">
         <v>14</v>
@@ -2060,8 +2066,8 @@
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>14</v>
+      <c r="B63" t="s">
+        <v>38</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -2071,8 +2077,8 @@
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>14</v>
+      <c r="B64" t="s">
+        <v>38</v>
       </c>
       <c r="C64">
         <v>14</v>
@@ -2082,8 +2088,8 @@
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>14</v>
+      <c r="B65" t="s">
+        <v>38</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -2093,8 +2099,8 @@
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>14</v>
+      <c r="B66" t="s">
+        <v>38</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -2104,8 +2110,8 @@
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>14</v>
+      <c r="B67" t="s">
+        <v>38</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -2115,8 +2121,8 @@
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>14</v>
+      <c r="B68" t="s">
+        <v>38</v>
       </c>
       <c r="C68">
         <v>14</v>
@@ -2126,8 +2132,8 @@
       <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>14</v>
+      <c r="B69" t="s">
+        <v>38</v>
       </c>
       <c r="C69">
         <v>13</v>
@@ -2137,8 +2143,8 @@
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>14</v>
+      <c r="B70" t="s">
+        <v>38</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -2148,8 +2154,8 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>14</v>
+      <c r="B71" t="s">
+        <v>38</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -2159,8 +2165,8 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>14</v>
+      <c r="B72" t="s">
+        <v>38</v>
       </c>
       <c r="C72">
         <v>11</v>
@@ -2170,8 +2176,8 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>14</v>
+      <c r="B73" t="s">
+        <v>38</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -2181,8 +2187,8 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>14</v>
+      <c r="B74" t="s">
+        <v>38</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -2192,8 +2198,8 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>14</v>
+      <c r="B75" t="s">
+        <v>38</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -2203,8 +2209,8 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>14</v>
+      <c r="B76" t="s">
+        <v>38</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2214,8 +2220,8 @@
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>15</v>
+      <c r="B77" t="s">
+        <v>39</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -2225,8 +2231,8 @@
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>15</v>
+      <c r="B78" t="s">
+        <v>39</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -2236,8 +2242,8 @@
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>15</v>
+      <c r="B79" t="s">
+        <v>39</v>
       </c>
       <c r="C79">
         <v>10</v>
@@ -2247,8 +2253,8 @@
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>15</v>
+      <c r="B80" t="s">
+        <v>39</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -2258,8 +2264,8 @@
       <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>15</v>
+      <c r="B81" t="s">
+        <v>39</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -2269,8 +2275,8 @@
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>15</v>
+      <c r="B82" t="s">
+        <v>39</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2280,8 +2286,8 @@
       <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>15</v>
+      <c r="B83" t="s">
+        <v>39</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -2291,8 +2297,8 @@
       <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>15</v>
+      <c r="B84" t="s">
+        <v>39</v>
       </c>
       <c r="C84">
         <v>10</v>
@@ -2302,8 +2308,8 @@
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>15</v>
+      <c r="B85" t="s">
+        <v>39</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -2313,8 +2319,8 @@
       <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>15</v>
+      <c r="B86" t="s">
+        <v>39</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -2324,8 +2330,8 @@
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>15</v>
+      <c r="B87" t="s">
+        <v>39</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -2335,8 +2341,8 @@
       <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>15</v>
+      <c r="B88" t="s">
+        <v>39</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -2346,8 +2352,8 @@
       <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>15</v>
+      <c r="B89" t="s">
+        <v>39</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2357,8 +2363,8 @@
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>15</v>
+      <c r="B90" t="s">
+        <v>39</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -2368,8 +2374,8 @@
       <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>15</v>
+      <c r="B91" t="s">
+        <v>39</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -2379,8 +2385,8 @@
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>16</v>
+      <c r="B92" t="s">
+        <v>40</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -2390,8 +2396,8 @@
       <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>16</v>
+      <c r="B93" t="s">
+        <v>40</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -2401,8 +2407,8 @@
       <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>16</v>
+      <c r="B94" t="s">
+        <v>40</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -2412,8 +2418,8 @@
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>16</v>
+      <c r="B95" t="s">
+        <v>40</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -2423,8 +2429,8 @@
       <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>16</v>
+      <c r="B96" t="s">
+        <v>40</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -2434,8 +2440,8 @@
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>16</v>
+      <c r="B97" t="s">
+        <v>40</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -2445,8 +2451,8 @@
       <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>16</v>
+      <c r="B98" t="s">
+        <v>40</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -2456,8 +2462,8 @@
       <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>16</v>
+      <c r="B99" t="s">
+        <v>40</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -2467,8 +2473,8 @@
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>16</v>
+      <c r="B100" t="s">
+        <v>40</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -2478,8 +2484,8 @@
       <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>16</v>
+      <c r="B101" t="s">
+        <v>40</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -2489,8 +2495,8 @@
       <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>16</v>
+      <c r="B102" t="s">
+        <v>40</v>
       </c>
       <c r="C102">
         <v>11</v>
@@ -2500,8 +2506,8 @@
       <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>16</v>
+      <c r="B103" t="s">
+        <v>40</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -2511,8 +2517,8 @@
       <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>16</v>
+      <c r="B104" t="s">
+        <v>40</v>
       </c>
       <c r="C104">
         <v>11</v>
@@ -2522,8 +2528,8 @@
       <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>16</v>
+      <c r="B105" t="s">
+        <v>40</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -2533,8 +2539,8 @@
       <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>16</v>
+      <c r="B106" t="s">
+        <v>40</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -2544,8 +2550,8 @@
       <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>17</v>
+      <c r="B107" t="s">
+        <v>41</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -2555,8 +2561,8 @@
       <c r="A108" s="12">
         <v>107</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>17</v>
+      <c r="B108" t="s">
+        <v>41</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -2566,8 +2572,8 @@
       <c r="A109" s="12">
         <v>108</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>17</v>
+      <c r="B109" t="s">
+        <v>41</v>
       </c>
       <c r="C109">
         <v>13</v>
@@ -2577,8 +2583,8 @@
       <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>17</v>
+      <c r="B110" t="s">
+        <v>41</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -2588,8 +2594,8 @@
       <c r="A111" s="12">
         <v>110</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>17</v>
+      <c r="B111" t="s">
+        <v>41</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -2599,8 +2605,8 @@
       <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>17</v>
+      <c r="B112" t="s">
+        <v>41</v>
       </c>
       <c r="C112">
         <v>14</v>
@@ -2610,8 +2616,8 @@
       <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>17</v>
+      <c r="B113" t="s">
+        <v>41</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -2621,8 +2627,8 @@
       <c r="A114" s="12">
         <v>113</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>17</v>
+      <c r="B114" t="s">
+        <v>41</v>
       </c>
       <c r="C114">
         <v>14</v>
@@ -2632,8 +2638,8 @@
       <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>17</v>
+      <c r="B115" t="s">
+        <v>41</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -2643,8 +2649,8 @@
       <c r="A116" s="12">
         <v>115</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>17</v>
+      <c r="B116" t="s">
+        <v>41</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -2654,8 +2660,8 @@
       <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>17</v>
+      <c r="B117" t="s">
+        <v>41</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -2665,8 +2671,8 @@
       <c r="A118" s="12">
         <v>117</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>17</v>
+      <c r="B118" t="s">
+        <v>41</v>
       </c>
       <c r="C118">
         <v>11</v>
@@ -2676,8 +2682,8 @@
       <c r="A119" s="12">
         <v>118</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>17</v>
+      <c r="B119" t="s">
+        <v>41</v>
       </c>
       <c r="C119">
         <v>15</v>
@@ -2687,22 +2693,26 @@
       <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>17</v>
+      <c r="B120" t="s">
+        <v>41</v>
       </c>
       <c r="C120">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="12" t="s">
-        <v>17</v>
+      <c r="B121" t="s">
+        <v>41</v>
       </c>
       <c r="C121">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{79F57FE2-1DC9-4875-B74D-7508213481A4}"/>
+    <hyperlink ref="B18:B31" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{FEB58F17-3037-4966-BAA6-77B661A1434A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2712,7 +2722,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2724,21 +2734,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="11">
         <v>14</v>
@@ -2748,14 +2758,14 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <f>AVERAGE(C2:C120)</f>
@@ -2766,14 +2776,14 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <f>MIN(C2:C120)</f>
@@ -2784,14 +2794,14 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="11">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <f>MAX(C2:C120)</f>
@@ -2802,8 +2812,8 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="11">
         <v>13</v>
@@ -2813,8 +2823,8 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="11">
         <v>14</v>
@@ -2824,8 +2834,8 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>12</v>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="11">
         <v>15</v>
@@ -2835,8 +2845,8 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="11">
         <v>13</v>
@@ -2846,8 +2856,8 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="11">
         <v>12</v>
@@ -2857,8 +2867,8 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="11">
         <v>11</v>
@@ -2868,8 +2878,8 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>12</v>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="11">
         <v>11</v>
@@ -2879,8 +2889,8 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="11">
         <v>13</v>
@@ -2890,8 +2900,8 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>12</v>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="11">
         <v>14</v>
@@ -2901,8 +2911,8 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>12</v>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="11">
         <v>12</v>
@@ -2912,8 +2922,8 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>12</v>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="11">
         <v>9</v>
@@ -2923,8 +2933,8 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>10</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
@@ -2934,8 +2944,8 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="11">
         <v>8</v>
@@ -2945,8 +2955,8 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="11">
         <v>13</v>
@@ -2956,8 +2966,8 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>10</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="11">
         <v>10</v>
@@ -2967,8 +2977,8 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>10</v>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="11">
         <v>13</v>
@@ -2978,8 +2988,8 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>10</v>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="11">
         <v>8</v>
@@ -2989,8 +2999,8 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>10</v>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="11">
         <v>9</v>
@@ -3000,8 +3010,8 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="11">
         <v>13</v>
@@ -3011,8 +3021,8 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>10</v>
+      <c r="B25" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
@@ -3022,8 +3032,8 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>10</v>
+      <c r="B26" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="11">
         <v>9</v>
@@ -3033,8 +3043,8 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>10</v>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="11">
         <v>9</v>
@@ -3044,8 +3054,8 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>10</v>
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="11">
         <v>8</v>
@@ -3055,8 +3065,8 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>10</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="11">
         <v>13</v>
@@ -3066,8 +3076,8 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>10</v>
+      <c r="B30" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="11">
         <v>12</v>
@@ -3077,8 +3087,8 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>10</v>
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
@@ -3088,8 +3098,8 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>11</v>
+      <c r="B32" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="11">
         <v>9</v>
@@ -3099,8 +3109,8 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>11</v>
+      <c r="B33" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="11">
         <v>13</v>
@@ -3110,8 +3120,8 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>11</v>
+      <c r="B34" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="11">
         <v>12</v>
@@ -3121,8 +3131,8 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>11</v>
+      <c r="B35" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="11">
         <v>13</v>
@@ -3132,8 +3142,8 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="11">
         <v>11</v>
@@ -3143,8 +3153,8 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>11</v>
+      <c r="B37" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="11">
         <v>13</v>
@@ -3154,8 +3164,8 @@
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
+      <c r="B38" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="11">
         <v>11</v>
@@ -3165,8 +3175,8 @@
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>11</v>
+      <c r="B39" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="11">
         <v>12</v>
@@ -3176,8 +3186,8 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>11</v>
+      <c r="B40" t="s">
+        <v>36</v>
       </c>
       <c r="C40" s="11">
         <v>9</v>
@@ -3187,8 +3197,8 @@
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>11</v>
+      <c r="B41" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="11">
         <v>11</v>
@@ -3198,8 +3208,8 @@
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>11</v>
+      <c r="B42" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="11">
         <v>13</v>
@@ -3209,8 +3219,8 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>11</v>
+      <c r="B43" t="s">
+        <v>36</v>
       </c>
       <c r="C43" s="11">
         <v>8</v>
@@ -3220,8 +3230,8 @@
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>11</v>
+      <c r="B44" t="s">
+        <v>36</v>
       </c>
       <c r="C44" s="11">
         <v>13</v>
@@ -3231,8 +3241,8 @@
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>11</v>
+      <c r="B45" t="s">
+        <v>36</v>
       </c>
       <c r="C45" s="11">
         <v>9</v>
@@ -3242,8 +3252,8 @@
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>11</v>
+      <c r="B46" t="s">
+        <v>36</v>
       </c>
       <c r="C46" s="11">
         <v>9</v>
@@ -3253,8 +3263,8 @@
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>13</v>
+      <c r="B47" t="s">
+        <v>37</v>
       </c>
       <c r="C47" s="11">
         <v>14</v>
@@ -3264,8 +3274,8 @@
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
+      <c r="B48" t="s">
+        <v>37</v>
       </c>
       <c r="C48" s="11">
         <v>11</v>
@@ -3275,8 +3285,8 @@
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>13</v>
+      <c r="B49" t="s">
+        <v>37</v>
       </c>
       <c r="C49" s="11">
         <v>11</v>
@@ -3286,8 +3296,8 @@
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>13</v>
+      <c r="B50" t="s">
+        <v>37</v>
       </c>
       <c r="C50" s="11">
         <v>9</v>
@@ -3297,8 +3307,8 @@
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>13</v>
+      <c r="B51" t="s">
+        <v>37</v>
       </c>
       <c r="C51" s="11">
         <v>14</v>
@@ -3308,8 +3318,8 @@
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>13</v>
+      <c r="B52" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="11">
         <v>11</v>
@@ -3319,8 +3329,8 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>13</v>
+      <c r="B53" t="s">
+        <v>37</v>
       </c>
       <c r="C53" s="11">
         <v>12</v>
@@ -3330,8 +3340,8 @@
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>13</v>
+      <c r="B54" t="s">
+        <v>37</v>
       </c>
       <c r="C54" s="11">
         <v>11</v>
@@ -3341,8 +3351,8 @@
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>13</v>
+      <c r="B55" t="s">
+        <v>37</v>
       </c>
       <c r="C55" s="11">
         <v>12</v>
@@ -3352,8 +3362,8 @@
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>13</v>
+      <c r="B56" t="s">
+        <v>37</v>
       </c>
       <c r="C56" s="11">
         <v>10</v>
@@ -3363,8 +3373,8 @@
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>13</v>
+      <c r="B57" t="s">
+        <v>37</v>
       </c>
       <c r="C57" s="11">
         <v>12</v>
@@ -3374,8 +3384,8 @@
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>13</v>
+      <c r="B58" t="s">
+        <v>37</v>
       </c>
       <c r="C58" s="11">
         <v>9</v>
@@ -3385,8 +3395,8 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>13</v>
+      <c r="B59" t="s">
+        <v>37</v>
       </c>
       <c r="C59" s="11">
         <v>9</v>
@@ -3396,8 +3406,8 @@
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>13</v>
+      <c r="B60" t="s">
+        <v>37</v>
       </c>
       <c r="C60" s="11">
         <v>11</v>
@@ -3407,8 +3417,8 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>13</v>
+      <c r="B61" t="s">
+        <v>37</v>
       </c>
       <c r="C61" s="11">
         <v>12</v>
@@ -3418,8 +3428,8 @@
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>14</v>
+      <c r="B62" t="s">
+        <v>38</v>
       </c>
       <c r="C62" s="11">
         <v>14</v>
@@ -3429,8 +3439,8 @@
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>14</v>
+      <c r="B63" t="s">
+        <v>38</v>
       </c>
       <c r="C63" s="11">
         <v>14</v>
@@ -3440,8 +3450,8 @@
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>14</v>
+      <c r="B64" t="s">
+        <v>38</v>
       </c>
       <c r="C64" s="11">
         <v>15</v>
@@ -3451,8 +3461,8 @@
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>14</v>
+      <c r="B65" t="s">
+        <v>38</v>
       </c>
       <c r="C65" s="11">
         <v>10</v>
@@ -3462,8 +3472,8 @@
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>14</v>
+      <c r="B66" t="s">
+        <v>38</v>
       </c>
       <c r="C66" s="11">
         <v>18</v>
@@ -3473,8 +3483,8 @@
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>14</v>
+      <c r="B67" t="s">
+        <v>38</v>
       </c>
       <c r="C67" s="11">
         <v>13</v>
@@ -3484,8 +3494,8 @@
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>14</v>
+      <c r="B68" t="s">
+        <v>38</v>
       </c>
       <c r="C68" s="11">
         <v>14</v>
@@ -3495,8 +3505,8 @@
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>14</v>
+      <c r="B69" t="s">
+        <v>38</v>
       </c>
       <c r="C69" s="11">
         <v>14</v>
@@ -3506,8 +3516,8 @@
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>14</v>
+      <c r="B70" t="s">
+        <v>38</v>
       </c>
       <c r="C70" s="11">
         <v>14</v>
@@ -3517,8 +3527,8 @@
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>14</v>
+      <c r="B71" t="s">
+        <v>38</v>
       </c>
       <c r="C71" s="11">
         <v>11</v>
@@ -3528,8 +3538,8 @@
       <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>14</v>
+      <c r="B72" t="s">
+        <v>38</v>
       </c>
       <c r="C72" s="11">
         <v>20</v>
@@ -3539,8 +3549,8 @@
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>14</v>
+      <c r="B73" t="s">
+        <v>38</v>
       </c>
       <c r="C73" s="11">
         <v>20</v>
@@ -3550,8 +3560,8 @@
       <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>14</v>
+      <c r="B74" t="s">
+        <v>38</v>
       </c>
       <c r="C74" s="11">
         <v>11</v>
@@ -3561,8 +3571,8 @@
       <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>14</v>
+      <c r="B75" t="s">
+        <v>38</v>
       </c>
       <c r="C75" s="11">
         <v>15</v>
@@ -3572,8 +3582,8 @@
       <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>14</v>
+      <c r="B76" t="s">
+        <v>38</v>
       </c>
       <c r="C76" s="11">
         <v>19</v>
@@ -3583,8 +3593,8 @@
       <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>15</v>
+      <c r="B77" t="s">
+        <v>39</v>
       </c>
       <c r="C77" s="11">
         <v>16</v>
@@ -3594,8 +3604,8 @@
       <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>15</v>
+      <c r="B78" t="s">
+        <v>39</v>
       </c>
       <c r="C78" s="11">
         <v>16</v>
@@ -3605,8 +3615,8 @@
       <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>15</v>
+      <c r="B79" t="s">
+        <v>39</v>
       </c>
       <c r="C79" s="11">
         <v>16</v>
@@ -3616,8 +3626,8 @@
       <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>15</v>
+      <c r="B80" t="s">
+        <v>39</v>
       </c>
       <c r="C80" s="11">
         <v>10</v>
@@ -3627,8 +3637,8 @@
       <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>15</v>
+      <c r="B81" t="s">
+        <v>39</v>
       </c>
       <c r="C81" s="11">
         <v>12</v>
@@ -3638,8 +3648,8 @@
       <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>15</v>
+      <c r="B82" t="s">
+        <v>39</v>
       </c>
       <c r="C82" s="11">
         <v>20</v>
@@ -3649,8 +3659,8 @@
       <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>15</v>
+      <c r="B83" t="s">
+        <v>39</v>
       </c>
       <c r="C83" s="11">
         <v>16</v>
@@ -3660,8 +3670,8 @@
       <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>15</v>
+      <c r="B84" t="s">
+        <v>39</v>
       </c>
       <c r="C84" s="11">
         <v>20</v>
@@ -3671,8 +3681,8 @@
       <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>15</v>
+      <c r="B85" t="s">
+        <v>39</v>
       </c>
       <c r="C85" s="11">
         <v>19</v>
@@ -3682,8 +3692,8 @@
       <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>15</v>
+      <c r="B86" t="s">
+        <v>39</v>
       </c>
       <c r="C86" s="11">
         <v>18</v>
@@ -3693,8 +3703,8 @@
       <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>15</v>
+      <c r="B87" t="s">
+        <v>39</v>
       </c>
       <c r="C87" s="11">
         <v>20</v>
@@ -3704,8 +3714,8 @@
       <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>15</v>
+      <c r="B88" t="s">
+        <v>39</v>
       </c>
       <c r="C88" s="11">
         <v>16</v>
@@ -3715,8 +3725,8 @@
       <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>15</v>
+      <c r="B89" t="s">
+        <v>39</v>
       </c>
       <c r="C89" s="11">
         <v>16</v>
@@ -3726,8 +3736,8 @@
       <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>15</v>
+      <c r="B90" t="s">
+        <v>39</v>
       </c>
       <c r="C90" s="11">
         <v>16</v>
@@ -3737,8 +3747,8 @@
       <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>15</v>
+      <c r="B91" t="s">
+        <v>39</v>
       </c>
       <c r="C91" s="11">
         <v>13</v>
@@ -3748,8 +3758,8 @@
       <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>16</v>
+      <c r="B92" t="s">
+        <v>40</v>
       </c>
       <c r="C92" s="11">
         <v>15</v>
@@ -3759,8 +3769,8 @@
       <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>16</v>
+      <c r="B93" t="s">
+        <v>40</v>
       </c>
       <c r="C93" s="11">
         <v>11</v>
@@ -3770,8 +3780,8 @@
       <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>16</v>
+      <c r="B94" t="s">
+        <v>40</v>
       </c>
       <c r="C94" s="11">
         <v>15</v>
@@ -3781,8 +3791,8 @@
       <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>16</v>
+      <c r="B95" t="s">
+        <v>40</v>
       </c>
       <c r="C95" s="11">
         <v>14</v>
@@ -3792,8 +3802,8 @@
       <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>16</v>
+      <c r="B96" t="s">
+        <v>40</v>
       </c>
       <c r="C96" s="11">
         <v>13</v>
@@ -3803,8 +3813,8 @@
       <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>16</v>
+      <c r="B97" t="s">
+        <v>40</v>
       </c>
       <c r="C97" s="11">
         <v>13</v>
@@ -3814,8 +3824,8 @@
       <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>16</v>
+      <c r="B98" t="s">
+        <v>40</v>
       </c>
       <c r="C98" s="11">
         <v>13</v>
@@ -3825,8 +3835,8 @@
       <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>16</v>
+      <c r="B99" t="s">
+        <v>40</v>
       </c>
       <c r="C99" s="11">
         <v>14</v>
@@ -3836,8 +3846,8 @@
       <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>16</v>
+      <c r="B100" t="s">
+        <v>40</v>
       </c>
       <c r="C100" s="11">
         <v>12</v>
@@ -3847,8 +3857,8 @@
       <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>16</v>
+      <c r="B101" t="s">
+        <v>40</v>
       </c>
       <c r="C101" s="11">
         <v>13</v>
@@ -3858,8 +3868,8 @@
       <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>16</v>
+      <c r="B102" t="s">
+        <v>40</v>
       </c>
       <c r="C102" s="11">
         <v>13</v>
@@ -3869,8 +3879,8 @@
       <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>16</v>
+      <c r="B103" t="s">
+        <v>40</v>
       </c>
       <c r="C103" s="11">
         <v>10</v>
@@ -3880,8 +3890,8 @@
       <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>16</v>
+      <c r="B104" t="s">
+        <v>40</v>
       </c>
       <c r="C104" s="11">
         <v>11</v>
@@ -3891,8 +3901,8 @@
       <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>16</v>
+      <c r="B105" t="s">
+        <v>40</v>
       </c>
       <c r="C105" s="11">
         <v>12</v>
@@ -3902,8 +3912,8 @@
       <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>16</v>
+      <c r="B106" t="s">
+        <v>40</v>
       </c>
       <c r="C106" s="11">
         <v>12</v>
@@ -3913,8 +3923,8 @@
       <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>17</v>
+      <c r="B107" t="s">
+        <v>41</v>
       </c>
       <c r="C107" s="11">
         <v>11</v>
@@ -3924,8 +3934,8 @@
       <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>17</v>
+      <c r="B108" t="s">
+        <v>41</v>
       </c>
       <c r="C108" s="11">
         <v>14</v>
@@ -3935,8 +3945,8 @@
       <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>17</v>
+      <c r="B109" t="s">
+        <v>41</v>
       </c>
       <c r="C109" s="11">
         <v>12</v>
@@ -3946,8 +3956,8 @@
       <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>17</v>
+      <c r="B110" t="s">
+        <v>41</v>
       </c>
       <c r="C110" s="11">
         <v>12</v>
@@ -3957,8 +3967,8 @@
       <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>17</v>
+      <c r="B111" t="s">
+        <v>41</v>
       </c>
       <c r="C111" s="11">
         <v>14</v>
@@ -3968,8 +3978,8 @@
       <c r="A112" s="11">
         <v>111</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>17</v>
+      <c r="B112" t="s">
+        <v>41</v>
       </c>
       <c r="C112" s="11">
         <v>12</v>
@@ -3979,8 +3989,8 @@
       <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>17</v>
+      <c r="B113" t="s">
+        <v>41</v>
       </c>
       <c r="C113" s="11">
         <v>13</v>
@@ -3990,8 +4000,8 @@
       <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>17</v>
+      <c r="B114" t="s">
+        <v>41</v>
       </c>
       <c r="C114" s="11">
         <v>13</v>
@@ -4001,8 +4011,8 @@
       <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>17</v>
+      <c r="B115" t="s">
+        <v>41</v>
       </c>
       <c r="C115" s="11">
         <v>13</v>
@@ -4012,8 +4022,8 @@
       <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>17</v>
+      <c r="B116" t="s">
+        <v>41</v>
       </c>
       <c r="C116" s="11">
         <v>13</v>
@@ -4023,8 +4033,8 @@
       <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>17</v>
+      <c r="B117" t="s">
+        <v>41</v>
       </c>
       <c r="C117" s="11">
         <v>13</v>
@@ -4034,8 +4044,8 @@
       <c r="A118" s="11">
         <v>117</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>17</v>
+      <c r="B118" t="s">
+        <v>41</v>
       </c>
       <c r="C118" s="11">
         <v>11</v>
@@ -4045,8 +4055,8 @@
       <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>17</v>
+      <c r="B119" t="s">
+        <v>41</v>
       </c>
       <c r="C119" s="11">
         <v>13</v>
@@ -4056,22 +4066,26 @@
       <c r="A120" s="11">
         <v>119</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>17</v>
+      <c r="B120" t="s">
+        <v>41</v>
       </c>
       <c r="C120" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="11" t="s">
-        <v>17</v>
+      <c r="B121" t="s">
+        <v>41</v>
       </c>
       <c r="C121" s="11">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{5AFEAB6D-5DE4-467D-AF23-C0BB2995E1A7}"/>
+    <hyperlink ref="B18:B31" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{85366EC9-AD43-4C12-B4C8-AB27B0C69E1D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4081,7 +4095,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4100,24 +4114,24 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="11">
         <v>18</v>
@@ -4134,10 +4148,10 @@
         <v>50</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I2" s="11">
         <f>SUM(E2:E9)/8</f>
@@ -4145,8 +4159,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="11">
         <v>20</v>
@@ -4163,12 +4177,12 @@
         <v>100</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
+      <c r="A4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="11">
         <v>19</v>
@@ -4185,12 +4199,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
@@ -4207,12 +4221,12 @@
         <v>-63.636363636363633</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="11">
         <v>20</v>
@@ -4229,12 +4243,12 @@
         <v>100</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
+      <c r="A7" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="11">
         <v>18</v>
@@ -4251,12 +4265,12 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="11">
         <v>20</v>
@@ -4273,12 +4287,12 @@
         <v>100</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
-        <v>17</v>
+      <c r="A9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="11">
         <v>22</v>
@@ -4295,10 +4309,13 @@
         <v>175</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{683B18E3-3C10-4147-A6E3-23D8E6285FB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C2C87-1614-4CBE-BFBA-BA0E488483C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED01EFF-5695-409D-A061-61045AA6546A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="45">
   <si>
     <t>Thursday</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Max time</t>
   </si>
   <si>
-    <t>Trays returned</t>
-  </si>
-  <si>
-    <t>Trays unreturned</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Available tray return point nearby</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg  </t>
-  </si>
-  <si>
     <t>Difference in (trays returned-tray unreturned)/trays unreturned) in %</t>
   </si>
   <si>
@@ -160,6 +151,24 @@
   </si>
   <si>
     <t>Netwon Food Centre</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Chinatown Complex Food Centre</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Trays returned (in the span of 1hr)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Trays unreturned (in the span of 1hr)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +630,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -749,7 +758,7 @@
         <v>545</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>41</v>
@@ -805,7 +814,7 @@
         <v>612</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>68</v>
@@ -838,7 +847,7 @@
         <v>612</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>45</v>
@@ -871,7 +880,7 @@
         <v>701</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -904,7 +913,7 @@
         <v>624</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -937,7 +946,7 @@
         <v>712</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>24</v>
@@ -970,7 +979,7 @@
         <v>921</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>35</v>
@@ -1075,7 +1084,7 @@
         <v>428</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>48</v>
@@ -1124,7 +1133,7 @@
         <v>451</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>33</v>
@@ -1157,7 +1166,7 @@
         <v>601</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>32</v>
@@ -1190,7 +1199,7 @@
         <v>522</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1223,7 +1232,7 @@
         <v>552</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>42</v>
@@ -1256,7 +1265,7 @@
         <v>700</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>69</v>
@@ -1289,7 +1298,7 @@
         <v>722</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>70</v>
@@ -1347,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B121"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1434,6 +1443,13 @@
       <c r="C5">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <f>STDEV(C2:C121)</f>
+        <v>3.6099334380888495</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
@@ -1561,7 +1577,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1572,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1583,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1594,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1605,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1616,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1627,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1638,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1649,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1660,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1671,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1682,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1693,7 +1709,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -1704,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>13</v>
@@ -1715,7 +1731,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -1726,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1737,7 +1753,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -1748,7 +1764,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -1759,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -1770,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -1781,7 +1797,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1792,7 +1808,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38">
         <v>17</v>
@@ -1803,7 +1819,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1814,7 +1830,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1825,7 +1841,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>17</v>
@@ -1836,7 +1852,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -1847,7 +1863,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -1858,7 +1874,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -1869,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <v>17</v>
@@ -1880,7 +1896,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -1891,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>17</v>
@@ -1902,7 +1918,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -1913,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -1924,7 +1940,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C50">
         <v>19</v>
@@ -1935,7 +1951,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>19</v>
@@ -1946,7 +1962,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>18</v>
@@ -1957,7 +1973,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -1968,7 +1984,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>16</v>
@@ -1979,7 +1995,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -1990,7 +2006,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56">
         <v>19</v>
@@ -2001,7 +2017,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -2012,7 +2028,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -2023,7 +2039,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -2034,7 +2050,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>16</v>
@@ -2045,7 +2061,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -2056,7 +2072,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>14</v>
@@ -2067,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -2078,7 +2094,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>14</v>
@@ -2089,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -2100,7 +2116,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -2111,7 +2127,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -2122,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>14</v>
@@ -2133,7 +2149,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>13</v>
@@ -2144,7 +2160,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -2155,7 +2171,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>13</v>
@@ -2166,7 +2182,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>11</v>
@@ -2177,7 +2193,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -2188,7 +2204,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -2199,7 +2215,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>12</v>
@@ -2210,7 +2226,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2221,7 +2237,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -2232,7 +2248,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -2243,7 +2259,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>10</v>
@@ -2254,7 +2270,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -2265,7 +2281,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -2276,7 +2292,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2287,7 +2303,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -2298,7 +2314,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C84">
         <v>10</v>
@@ -2309,7 +2325,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -2320,7 +2336,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -2331,7 +2347,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -2342,7 +2358,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -2353,7 +2369,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2364,7 +2380,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -2375,7 +2391,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -2386,7 +2402,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -2397,7 +2413,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -2408,7 +2424,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -2419,7 +2435,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -2430,7 +2446,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -2441,7 +2457,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -2452,7 +2468,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -2463,7 +2479,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -2474,7 +2490,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -2485,7 +2501,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -2496,7 +2512,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C102">
         <v>11</v>
@@ -2507,7 +2523,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -2518,7 +2534,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C104">
         <v>11</v>
@@ -2529,7 +2545,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -2540,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -2551,7 +2567,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -2562,7 +2578,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -2573,7 +2589,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C109">
         <v>13</v>
@@ -2584,7 +2600,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -2595,7 +2611,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -2606,7 +2622,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C112">
         <v>14</v>
@@ -2617,7 +2633,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -2628,7 +2644,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C114">
         <v>14</v>
@@ -2639,7 +2655,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -2650,7 +2666,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -2661,7 +2677,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -2672,7 +2688,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C118">
         <v>11</v>
@@ -2683,7 +2699,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C119">
         <v>15</v>
@@ -2694,7 +2710,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -2702,7 +2718,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -2722,12 +2738,12 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B121"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.06640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2818,6 +2834,13 @@
       <c r="C6" s="11">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <f>STDEV(C2:C121)</f>
+        <v>2.7743826123214919</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
@@ -2934,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
@@ -2945,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" s="11">
         <v>8</v>
@@ -2956,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11">
         <v>13</v>
@@ -2967,7 +2990,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11">
         <v>10</v>
@@ -2978,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11">
         <v>13</v>
@@ -2989,7 +3012,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="11">
         <v>8</v>
@@ -3000,7 +3023,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23" s="11">
         <v>9</v>
@@ -3011,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11">
         <v>13</v>
@@ -3022,7 +3045,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
@@ -3033,7 +3056,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11">
         <v>9</v>
@@ -3044,7 +3067,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="11">
         <v>9</v>
@@ -3055,7 +3078,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11">
         <v>8</v>
@@ -3066,7 +3089,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" s="11">
         <v>13</v>
@@ -3077,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C30" s="11">
         <v>12</v>
@@ -3088,7 +3111,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
@@ -3099,7 +3122,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11">
         <v>9</v>
@@ -3110,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="11">
         <v>13</v>
@@ -3121,7 +3144,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="11">
         <v>12</v>
@@ -3132,7 +3155,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="11">
         <v>13</v>
@@ -3143,7 +3166,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11">
         <v>11</v>
@@ -3154,7 +3177,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="11">
         <v>13</v>
@@ -3165,7 +3188,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="11">
         <v>11</v>
@@ -3176,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="11">
         <v>12</v>
@@ -3187,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" s="11">
         <v>9</v>
@@ -3198,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" s="11">
         <v>11</v>
@@ -3209,7 +3232,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="11">
         <v>13</v>
@@ -3220,7 +3243,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43" s="11">
         <v>8</v>
@@ -3231,7 +3254,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11">
         <v>13</v>
@@ -3242,7 +3265,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="11">
         <v>9</v>
@@ -3253,7 +3276,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" s="11">
         <v>9</v>
@@ -3264,7 +3287,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C47" s="11">
         <v>14</v>
@@ -3275,7 +3298,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="11">
         <v>11</v>
@@ -3286,7 +3309,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" s="11">
         <v>11</v>
@@ -3297,7 +3320,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C50" s="11">
         <v>9</v>
@@ -3308,7 +3331,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51" s="11">
         <v>14</v>
@@ -3319,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11">
         <v>11</v>
@@ -3330,7 +3353,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C53" s="11">
         <v>12</v>
@@ -3341,7 +3364,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11">
         <v>11</v>
@@ -3352,7 +3375,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55" s="11">
         <v>12</v>
@@ -3363,7 +3386,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" s="11">
         <v>10</v>
@@ -3374,7 +3397,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C57" s="11">
         <v>12</v>
@@ -3385,7 +3408,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11">
         <v>9</v>
@@ -3396,7 +3419,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C59" s="11">
         <v>9</v>
@@ -3407,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C60" s="11">
         <v>11</v>
@@ -3418,7 +3441,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C61" s="11">
         <v>12</v>
@@ -3429,7 +3452,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C62" s="11">
         <v>14</v>
@@ -3440,7 +3463,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C63" s="11">
         <v>14</v>
@@ -3451,7 +3474,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64" s="11">
         <v>15</v>
@@ -3462,7 +3485,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" s="11">
         <v>10</v>
@@ -3473,7 +3496,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C66" s="11">
         <v>18</v>
@@ -3484,7 +3507,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67" s="11">
         <v>13</v>
@@ -3495,7 +3518,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68" s="11">
         <v>14</v>
@@ -3506,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69" s="11">
         <v>14</v>
@@ -3517,7 +3540,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C70" s="11">
         <v>14</v>
@@ -3528,7 +3551,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C71" s="11">
         <v>11</v>
@@ -3539,7 +3562,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C72" s="11">
         <v>20</v>
@@ -3550,7 +3573,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="11">
         <v>20</v>
@@ -3561,7 +3584,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C74" s="11">
         <v>11</v>
@@ -3572,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C75" s="11">
         <v>15</v>
@@ -3583,7 +3606,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C76" s="11">
         <v>19</v>
@@ -3594,7 +3617,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77" s="11">
         <v>16</v>
@@ -3605,7 +3628,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78" s="11">
         <v>16</v>
@@ -3616,7 +3639,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C79" s="11">
         <v>16</v>
@@ -3627,7 +3650,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C80" s="11">
         <v>10</v>
@@ -3638,7 +3661,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81" s="11">
         <v>12</v>
@@ -3649,7 +3672,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82" s="11">
         <v>20</v>
@@ -3660,7 +3683,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C83" s="11">
         <v>16</v>
@@ -3671,7 +3694,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C84" s="11">
         <v>20</v>
@@ -3682,7 +3705,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85" s="11">
         <v>19</v>
@@ -3693,7 +3716,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C86" s="11">
         <v>18</v>
@@ -3704,7 +3727,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87" s="11">
         <v>20</v>
@@ -3715,7 +3738,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C88" s="11">
         <v>16</v>
@@ -3726,7 +3749,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89" s="11">
         <v>16</v>
@@ -3737,7 +3760,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C90" s="11">
         <v>16</v>
@@ -3748,7 +3771,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C91" s="11">
         <v>13</v>
@@ -3759,7 +3782,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C92" s="11">
         <v>15</v>
@@ -3770,7 +3793,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C93" s="11">
         <v>11</v>
@@ -3781,7 +3804,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C94" s="11">
         <v>15</v>
@@ -3792,7 +3815,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C95" s="11">
         <v>14</v>
@@ -3803,7 +3826,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C96" s="11">
         <v>13</v>
@@ -3814,7 +3837,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C97" s="11">
         <v>13</v>
@@ -3825,7 +3848,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98" s="11">
         <v>13</v>
@@ -3836,7 +3859,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C99" s="11">
         <v>14</v>
@@ -3847,7 +3870,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100" s="11">
         <v>12</v>
@@ -3858,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C101" s="11">
         <v>13</v>
@@ -3869,7 +3892,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C102" s="11">
         <v>13</v>
@@ -3880,7 +3903,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103" s="11">
         <v>10</v>
@@ -3891,7 +3914,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C104" s="11">
         <v>11</v>
@@ -3902,7 +3925,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C105" s="11">
         <v>12</v>
@@ -3913,7 +3936,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C106" s="11">
         <v>12</v>
@@ -3924,7 +3947,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C107" s="11">
         <v>11</v>
@@ -3935,7 +3958,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C108" s="11">
         <v>14</v>
@@ -3946,7 +3969,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C109" s="11">
         <v>12</v>
@@ -3957,7 +3980,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C110" s="11">
         <v>12</v>
@@ -3968,7 +3991,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C111" s="11">
         <v>14</v>
@@ -3979,7 +4002,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C112" s="11">
         <v>12</v>
@@ -3990,7 +4013,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C113" s="11">
         <v>13</v>
@@ -4001,7 +4024,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C114" s="11">
         <v>13</v>
@@ -4012,7 +4035,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C115" s="11">
         <v>13</v>
@@ -4023,7 +4046,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C116" s="11">
         <v>13</v>
@@ -4034,7 +4057,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C117" s="11">
         <v>13</v>
@@ -4045,7 +4068,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C118" s="11">
         <v>11</v>
@@ -4056,7 +4079,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C119" s="11">
         <v>13</v>
@@ -4067,15 +4090,18 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C120" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C121" s="11">
         <v>12</v>
@@ -4084,7 +4110,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{5AFEAB6D-5DE4-467D-AF23-C0BB2995E1A7}"/>
-    <hyperlink ref="B18:B31" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{85366EC9-AD43-4C12-B4C8-AB27B0C69E1D}"/>
+    <hyperlink ref="B18:B31" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{E4EA798C-E900-4E5E-A111-F5130CC4B237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4095,13 +4121,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.9296875" customWidth="1"/>
     <col min="5" max="5" width="18.86328125" customWidth="1"/>
@@ -4113,20 +4139,20 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -4148,25 +4174,25 @@
         <v>50</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I2" s="11">
         <f>SUM(E2:E9)/8</f>
-        <v>73.01136363636364</v>
+        <v>43.844696969696969</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
         <v>20</v>
-      </c>
-      <c r="C3" s="11">
-        <v>10</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D9" si="0">SUM(B3:C3)</f>
@@ -4174,7 +4200,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E9" si="1">(B3-C3)/(C3)*100</f>
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>31</v>
@@ -4182,7 +4208,7 @@
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11">
         <v>19</v>
@@ -4199,12 +4225,12 @@
         <v>72.727272727272734</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
@@ -4221,12 +4247,12 @@
         <v>-63.636363636363633</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11">
         <v>20</v>
@@ -4243,18 +4269,18 @@
         <v>100</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
         <v>18</v>
-      </c>
-      <c r="C7" s="11">
-        <v>12</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -4262,7 +4288,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>-33.333333333333329</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>31</v>
@@ -4270,7 +4296,7 @@
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11">
         <v>20</v>
@@ -4287,12 +4313,12 @@
         <v>100</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11">
         <v>22</v>
@@ -4309,7 +4335,7 @@
         <v>175</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED01EFF-5695-409D-A061-61045AA6546A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E598B0B-2370-43C0-A8F7-1220F7B57893}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="48">
   <si>
     <t>Thursday</t>
   </si>
@@ -99,15 +99,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>average time taken eating</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>average timing to clean a plate in seconds</t>
   </si>
   <si>
@@ -169,6 +160,24 @@
   </si>
   <si>
     <t>Trays unreturned (in the span of 1hr)</t>
+  </si>
+  <si>
+    <t>Average time taken eating</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Block 16 Bedok South Market &amp; Food Centre</t>
+  </si>
+  <si>
+    <t>ABC Brickworks Food Centre</t>
+  </si>
+  <si>
+    <t>Chinatown Compelx Food Centre</t>
   </si>
 </sst>
 </file>
@@ -264,23 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,10 +306,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,724 +640,737 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ABFA-3741-43AD-9FEA-F32BEA9D2F22}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="5"/>
+    <col min="4" max="4" width="11.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="5"/>
+    <col min="7" max="7" width="10.796875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9.06640625" style="5"/>
+    <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="3">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="15">
         <v>43535</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="16">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>632</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>24</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>38</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>89</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>SUMPRODUCT($F$2:$I$2,F3:I3)</f>
         <v>544</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="2">
         <v>3</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>43535</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="16">
         <v>0.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>545</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2">
         <v>41</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>68</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>60</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J19" si="0">SUMPRODUCT($F$2:$I$2,F4:I4)</f>
         <v>545</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="2">
         <f>AVERAGE(D3:D10)/60/60</f>
         <v>0.18607638888888889</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f>SUM(F3:F10)/SUM(F3:I10)</f>
         <v>0.15380464112250405</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <f>SUM(G3:G10)/SUM(F3:I10)</f>
         <v>0.2207231516459795</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <f>SUM(H3:H10)/SUM(F3:I10)</f>
         <v>0.26443604964921746</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <f>SUM(I3:I10)/SUM(F3:I10)</f>
         <v>0.36103615758229896</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>43535</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>612</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
         <v>68</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>72</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="15">
         <v>43536</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="16">
         <v>0.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>612</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>48</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>43</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>80</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>43537</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="16">
         <v>0.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>701</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>60</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>61</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>92</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>43538</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="16">
         <v>0.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>624</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>80</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>54</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>71</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9" s="15">
         <v>43538</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="16">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>712</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
         <v>24</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>58</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>80</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>83</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10" s="15">
         <v>43539</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>921</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2">
         <v>55</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>96</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>122</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="5"/>
-      <c r="O11" s="15" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="57" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12" s="15">
         <v>43542</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="16">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>498</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>35</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>42</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>48</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="2">
         <f>AVERAGE(D12:D19)/60/60</f>
         <v>0.15534722222222222</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="2">
         <v>1</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="2">
         <v>2</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13" s="15">
         <v>43542</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="16">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>428</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
         <v>32</v>
       </c>
-      <c r="F13">
-        <v>48</v>
-      </c>
-      <c r="G13">
-        <v>32</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>52</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>40</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <f>SUM(F12:F19)/SUM(F12:I19)</f>
         <v>0.2341095028319698</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f>SUM(G12:G19)/SUM(F12:I19)</f>
         <v>0.23285084959093769</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <f>SUM(H12:H19)/SUM(F12:I19)</f>
         <v>0.24795468848332283</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <f>SUM(I12:I19)/SUM(F12:I19)</f>
         <v>0.28508495909376969</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14" s="15">
         <v>43542</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>451</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
         <v>33</v>
       </c>
-      <c r="F14">
-        <v>33</v>
-      </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>50</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>52</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15" s="15">
         <v>43543</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>601</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>60</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>48</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>32</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16" s="15">
         <v>43544</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>522</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2">
         <v>50</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>61</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>42</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>51</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17" s="15">
         <v>43545</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>552</v>
       </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
         <v>42</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>38</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>39</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>57</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18" s="15">
         <v>43545</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>700</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2">
         <v>69</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>63</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>59</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>82</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19" s="15">
         <v>43546</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="16">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>722</v>
       </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2">
         <v>70</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>51</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>62</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>91</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E20" s="5"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
+      <c r="A28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{89C55ED5-F032-4DAF-81ED-F2C6C84005AF}"/>
-    <hyperlink ref="E13" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{D379FEF4-9545-469B-A712-3F8D9E8D6B7B}"/>
+    <hyperlink ref="E13" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{B6258517-A5DF-4259-9C25-045797406E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,7 +1381,7 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1365,97 +1389,97 @@
     <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="17">
         <f>AVERAGE(C2:C119)</f>
         <v>13.649572649572649</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="17">
         <f>MIN(C2:C119)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="17">
         <f>MAX(C2:C119)</f>
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="17">
         <f>STDEV(C2:C121)</f>
         <v>3.6099334380888495</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
@@ -1463,10 +1487,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1474,10 +1498,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8">
@@ -1485,10 +1509,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1496,10 +1520,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1507,10 +1531,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -1518,10 +1542,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -1529,10 +1553,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13">
@@ -1540,10 +1564,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C14">
@@ -1551,10 +1575,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15">
@@ -1562,10 +1586,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16">
@@ -1573,1144 +1597,1144 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="12">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="12">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="12">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="12">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="12">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="12">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="12">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="12">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="12">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="12">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="12">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="12">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="12">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="12">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="12">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="12">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="12">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="12">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="12">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="12">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="12">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="12">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="12">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="12">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="12">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="12">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="12">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="12">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="12">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="12">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="12">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="12">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="12">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="12">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="12">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="12">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="12">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="12">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="12">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="12">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="12">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="12">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="12">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="12">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="12">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="12">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="12">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="12">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="12">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="12">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="12">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="12">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="12">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="12">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="12">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="12">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="12">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="12">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="12">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="12">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="12">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C78">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="12">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="12">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="12">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="12">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C82">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="12">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="12">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="12">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="12">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C86">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="12">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="12">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C88">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="12">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="12">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="12">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C91">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="12">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="12">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="12">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="12">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="12">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="12">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="12">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="12">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="12">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="12">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="12">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="12">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C103">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="12">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="12">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C105">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="12">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="12">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="12">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="12">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="12">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="12">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="12">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="12">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="12">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="12">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="12">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="12">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="12">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="12">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="12">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -2718,7 +2742,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -2749,39 +2773,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="11">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <f>AVERAGE(C2:C120)</f>
@@ -2789,17 +2813,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <f>MIN(C2:C120)</f>
@@ -2807,17 +2831,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <f>MAX(C2:C120)</f>
@@ -2825,17 +2849,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <f>STDEV(C2:C121)</f>
@@ -2843,1267 +2867,1267 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="11">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="C17" s="11">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="11">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="11">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="11">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="11">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="11">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="C99" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="11">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="C107" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="11">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="11">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="11">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="11">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="11">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="5">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="11">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C120" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="5">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="11">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="11">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="11">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="11">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="11">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="11">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="11">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="11">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="11">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="11">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="11">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="11">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="11">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="11">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="11">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="11">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="11">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="11">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="11">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="11">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="11">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="11">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="11">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="11">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="11">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="11">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="11">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="11">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="11">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="11">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="11">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="11">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="11">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="11">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="11">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="11">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="11">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="11">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="11">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="11">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="11">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="11">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="11">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="11">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>38</v>
-      </c>
-      <c r="C113" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="11">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="11">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="11">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="11">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>38</v>
-      </c>
-      <c r="C117" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="11">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="11">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>38</v>
-      </c>
-      <c r="C119" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="11">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="11">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="11">
+      <c r="C121" s="5">
         <v>12</v>
       </c>
     </row>
@@ -4120,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D2C0E-0307-4C3C-BA05-35DAD021C447}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4136,206 +4160,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="5">
         <v>18</v>
       </c>
-      <c r="C2" s="11">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="5">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
         <f>SUM(B2:C2)</f>
         <v>30</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="5">
         <f>(B2-C2)/(C2)*100</f>
         <v>50</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
         <f>SUM(E2:E9)/8</f>
         <v>43.844696969696969</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="11">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D9" si="0">SUM(B3:C3)</f>
         <v>30</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E9" si="1">(B3-C3)/(C3)*100</f>
         <v>-50</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>31</v>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
         <v>19</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>29</v>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>22</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>-63.636363636363633</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="11">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>-33.333333333333329</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>31</v>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>29</v>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="11">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
         <v>22</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE43DAD-5CD2-4FB3-9DE4-74E536026563}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E89DA-30A8-4ACC-AFCE-436574E93C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="14400" windowHeight="8273" tabRatio="681" firstSheet="1" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
@@ -302,18 +302,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,6 +330,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ABFA-3741-43AD-9FEA-F32BEA9D2F22}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -679,39 +679,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="3">
         <v>1</v>
       </c>
@@ -727,12 +727,12 @@
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
@@ -811,7 +811,7 @@
         <f t="shared" ref="J4:J13" si="0">SUMPRODUCT($F$2:$I$2,F4:I4)</f>
         <v>545</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="2">
@@ -935,13 +935,13 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="8">
         <v>1</v>
       </c>
@@ -957,12 +957,12 @@
       <c r="J8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
@@ -996,7 +996,7 @@
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="2">
@@ -1195,6 +1195,7 @@
     <hyperlink ref="E10" r:id="rId2" tooltip="Chinatown Complex Food Centre" display="https://www.thebestsingapore.com/best-place/chinatown-complex-food-centre/" xr:uid="{B6258517-A5DF-4259-9C25-045797406E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1202,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1215,27 +1216,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="8">
@@ -1244,16 +1245,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
         <v>21</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="8">
@@ -1262,16 +1263,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11">
         <v>17</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="8">
@@ -1280,16 +1281,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="8">
@@ -1298,783 +1299,783 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="15">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="15">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="15">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="15">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="15">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="15">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="15">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="15">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="15">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="15">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="15">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="15">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="15">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="15">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="15">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="15">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="15">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="15">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="15">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="15">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="15">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="15">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="15">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="15">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="15">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="15">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="15">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="15">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="15">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="15">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="15">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="15">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="15">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="15">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="15">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="15">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="15">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="15">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="15">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="15">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="15">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="11">
         <v>12</v>
       </c>
     </row>
@@ -2175,7 +2176,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2187,13 +2188,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2201,7 +2202,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2">
@@ -2212,16 +2213,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <f>AVERAGE(C2:C76)</f>
         <v>11.986666666666666</v>
       </c>
@@ -2230,34 +2231,34 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="21">
-        <f>MIN(C76)</f>
-        <v>19</v>
+      <c r="F4" s="17">
+        <f>MIN(C2:C76)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <f>MAX(C2:C76)</f>
         <v>20</v>
       </c>
@@ -2266,16 +2267,16 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>13</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <f>STDEV(C2:C76)</f>
         <v>2.6635341962164483</v>
       </c>
@@ -2284,7 +2285,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
@@ -2295,7 +2296,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
@@ -2306,7 +2307,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2">
@@ -2317,7 +2318,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -2328,7 +2329,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
@@ -2339,7 +2340,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2">
@@ -2350,7 +2351,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2">
@@ -2361,7 +2362,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2">
@@ -2372,7 +2373,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2">
@@ -2383,7 +2384,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2">
@@ -2394,7 +2395,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="2">
@@ -2405,7 +2406,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="2">
@@ -2416,7 +2417,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2">
@@ -2427,7 +2428,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
@@ -2438,7 +2439,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
@@ -2449,7 +2450,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2">
@@ -2460,7 +2461,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2">
@@ -2471,7 +2472,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="2">
@@ -2482,7 +2483,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="2">
@@ -2493,7 +2494,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2">
@@ -2504,7 +2505,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
@@ -2515,7 +2516,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2">
@@ -2526,7 +2527,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2">
@@ -2537,7 +2538,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2">
@@ -2548,7 +2549,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2">
@@ -3239,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D2C0E-0307-4C3C-BA05-35DAD021C447}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3255,33 +3256,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2">
@@ -3298,7 +3299,7 @@
         <f>(C2-D2)/(D2)*100</f>
         <v>50</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -3310,7 +3311,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3330,12 +3331,12 @@
         <f>(C3-D3)/(D3)*100</f>
         <v>-50</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3355,15 +3356,15 @@
         <f>(C4-D4)/(D4)*100</f>
         <v>72.727272727272734</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2">
@@ -3380,12 +3381,12 @@
         <f>(C5-D5)/(D5)*100</f>
         <v>-63.636363636363633</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3405,7 +3406,7 @@
         <f>(C6-D6)/(D6)*100</f>
         <v>100</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
     </row>

--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Junxiang/Documents/Y3S2/IS418 - Agent-Based Modelling &amp; Simulation/Project/ABMS-T9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E89DA-30A8-4ACC-AFCE-436574E93C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A188469-A062-9A47-96D7-830015CD34D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="14400" windowHeight="8273" tabRatio="681" firstSheet="1" activeTab="3" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="681" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,6 @@
     <t>Total Count</t>
   </si>
   <si>
-    <t>average observation of groups</t>
-  </si>
-  <si>
-    <t>average observation of groups(non-peak)</t>
-  </si>
-  <si>
     <t>Time-taken</t>
   </si>
   <si>
@@ -154,13 +148,19 @@
   </si>
   <si>
     <t>Average timing to clean a plate in seconds</t>
+  </si>
+  <si>
+    <t>Average observation of groups (non-peak)</t>
+  </si>
+  <si>
+    <t>Average observation of groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,25 +660,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ABFA-3741-43AD-9FEA-F32BEA9D2F22}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="4"/>
-    <col min="4" max="4" width="11.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="4"/>
-    <col min="7" max="7" width="10.796875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="9.06640625" style="4"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="10.83203125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="4"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="28.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="9.1640625" style="4" customWidth="1"/>
+    <col min="15" max="18" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -704,7 +709,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
@@ -728,13 +733,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" s="9">
         <v>43535</v>
       </c>
@@ -779,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="16">
       <c r="A4" s="9">
         <v>43535</v>
       </c>
@@ -793,7 +798,7 @@
         <v>545</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2">
         <v>41</v>
@@ -835,7 +840,7 @@
         <v>0.35193945127719961</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" s="9">
         <v>43535</v>
       </c>
@@ -849,7 +854,7 @@
         <v>612</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>68</v>
@@ -868,7 +873,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" s="9">
         <v>43536</v>
       </c>
@@ -882,7 +887,7 @@
         <v>612</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>45</v>
@@ -901,7 +906,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" s="9">
         <v>43538</v>
       </c>
@@ -915,7 +920,7 @@
         <v>624</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>18</v>
@@ -934,7 +939,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -958,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="16">
       <c r="A9" s="9">
         <v>43542</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" s="9">
         <v>43542</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>428</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
         <v>48</v>
@@ -1065,7 +1070,7 @@
         <v>0.27326968973747018</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" s="9">
         <v>43542</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>451</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
         <v>33</v>
@@ -1098,7 +1103,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" s="9">
         <v>43543</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>601</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>32</v>
@@ -1131,7 +1136,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" s="9">
         <v>43545</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>552</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>42</v>
@@ -1164,22 +1169,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="E14" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" s="7"/>
     </row>
   </sheetData>
@@ -1203,30 +1208,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACF6B6-6CE3-4E92-AF70-33C3A4836986}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1237,14 +1242,14 @@
         <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8">
         <f>AVERAGE(C2:C76)</f>
         <v>14.026666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1255,14 +1260,14 @@
         <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8">
         <f>MIN(C2:C76)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1273,14 +1278,14 @@
         <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8">
         <f>MAX(C2:C76)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1291,14 +1296,14 @@
         <v>15</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8">
         <f>STDEV(C2:C76)</f>
         <v>4.2202002428901517</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1419,751 +1424,751 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C72" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1">
       <c r="A105" s="5"/>
     </row>
   </sheetData>
@@ -2176,29 +2181,29 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2220,14 +2225,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="17">
         <f>AVERAGE(C2:C76)</f>
         <v>11.986666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2238,14 +2243,14 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="17">
         <f>MIN(C2:C76)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2256,14 +2261,14 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="17">
         <f>MAX(C2:C76)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2274,14 +2279,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="17">
         <f>STDEV(C2:C76)</f>
         <v>2.6635341962164483</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2391,843 +2396,843 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C72" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3">
       <c r="A77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3">
       <c r="A78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3">
       <c r="A79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3">
       <c r="A80" s="4"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
     </row>
@@ -3240,45 +3245,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D2C0E-0307-4C3C-BA05-35DAD021C447}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.86328125" customWidth="1"/>
-    <col min="6" max="7" width="26.796875" customWidth="1"/>
-    <col min="8" max="8" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3300,22 +3305,22 @@
         <v>50</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM(F2:F9)/8</f>
-        <v>13.636363636363637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+        <f>AVERAGE(F2:F6)</f>
+        <v>21.81818181818182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -3332,15 +3337,15 @@
         <v>-50</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>19</v>
@@ -3357,15 +3362,15 @@
         <v>72.727272727272734</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
@@ -3382,15 +3387,15 @@
         <v>-63.636363636363633</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -3407,24 +3412,24 @@
         <v>100</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>

--- a/abms data.xlsx
+++ b/abms data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Junxiang/Documents/Y3S2/IS418 - Agent-Based Modelling &amp; Simulation/Project/ABMS-T9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin ng\Desktop\ab modelling\project\ABMS-T9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A188469-A062-9A47-96D7-830015CD34D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A2C5D-CEA8-4B7A-AA47-BF853DEF07D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="681" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="681" activeTab="4" xr2:uid="{AB345F5E-DDAD-4D03-BBAA-62D070B78501}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowd-rate" sheetId="1" r:id="rId1"/>
     <sheet name="Eating-time" sheetId="3" r:id="rId2"/>
     <sheet name="Cleaning" sheetId="2" r:id="rId3"/>
     <sheet name="Tray Return" sheetId="4" r:id="rId4"/>
+    <sheet name="Hogging probability" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="41">
   <si>
     <t>Thursday</t>
   </si>
@@ -155,12 +156,15 @@
   <si>
     <t>Average observation of groups</t>
   </si>
+  <si>
+    <t>Probability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +191,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,10 +278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,9 +356,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,30 +674,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ABFA-3741-43AD-9FEA-F32BEA9D2F22}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" style="4" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="28.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.46484375" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="9.1640625" style="4" customWidth="1"/>
-    <col min="15" max="18" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="4" customWidth="1"/>
+    <col min="15" max="18" width="12.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -709,7 +723,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
@@ -739,7 +753,7 @@
       <c r="Q2" s="19"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>43535</v>
       </c>
@@ -784,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43535</v>
       </c>
@@ -840,7 +854,7 @@
         <v>0.35193945127719961</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>43535</v>
       </c>
@@ -873,7 +887,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>43536</v>
       </c>
@@ -906,7 +920,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>43538</v>
       </c>
@@ -939,7 +953,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -969,7 +983,7 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="1:18" ht="16">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>43542</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>43542</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>0.27326968973747018</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>43542</v>
       </c>
@@ -1103,7 +1117,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>43543</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>43545</v>
       </c>
@@ -1169,22 +1183,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
   </sheetData>
@@ -1212,7 +1226,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -1220,7 +1234,7 @@
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1249,7 +1263,7 @@
         <v>14.026666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>4.2202002428901517</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1336,7 +1350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1347,7 +1361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1380,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1391,7 +1405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1413,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1424,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1435,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1457,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1468,7 +1482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1512,7 +1526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1523,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1545,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -1556,7 +1570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -1622,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -1644,7 +1658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1655,7 +1669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1710,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1721,7 +1735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -1732,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -1776,7 +1790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -1798,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -1820,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -1842,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -1864,7 +1878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -1919,7 +1933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -1930,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -1941,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -1952,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -1963,7 +1977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -1974,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -1985,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -2007,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -2018,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -2040,7 +2054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -2084,91 +2098,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="5"/>
     </row>
   </sheetData>
@@ -2180,19 +2194,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21DCF71-2689-4FBB-8765-7213A580597D}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2214,7 +2228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>11.986666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2250,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>2.6635341962164483</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2297,7 +2311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2308,7 +2322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2330,7 +2344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2341,7 +2355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2374,7 +2388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2385,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2462,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2495,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2517,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2561,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2594,7 +2608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2605,7 +2619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2616,7 +2630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2627,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2638,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2649,7 +2663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2660,7 +2674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2671,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2693,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2715,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2737,7 +2751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2770,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2781,7 +2795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2803,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2814,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2836,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2858,7 +2872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2869,7 +2883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2891,7 +2905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2946,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2957,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2990,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3001,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3012,7 +3026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3034,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3045,7 +3059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3056,183 +3070,183 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
     </row>
@@ -3246,21 +3260,21 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
+    <col min="6" max="7" width="26.796875" customWidth="1"/>
+    <col min="8" max="8" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48">
+    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32">
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3315,7 +3329,7 @@
         <v>21.81818181818182</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32">
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32">
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3365,7 +3379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32">
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3415,21 +3429,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3442,4 +3456,866 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4324BFA-D783-47DC-91A8-9AA612ED35DF}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="25">
+        <f>SUM(C2:C76)/75</f>
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>